--- a/municipal/ENG/Education/General Educational Institution/Samtkhe-Javakheti/Akhaltsikhe.xlsx
+++ b/municipal/ENG/Education/General Educational Institution/Samtkhe-Javakheti/Akhaltsikhe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Social_Stat\სოციალური სტატ\ზოგადსაგანმანათლებლო დაწესებულებები\სამცხე-ჯავახეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\General Educational Institution\Samtkhe-Javakheti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,9 +65,6 @@
     <t>─</t>
   </si>
   <si>
-    <t>Public and Private General Education Schools in Akhaltsikhe</t>
-  </si>
-  <si>
     <t>(At the beginning of the school year)</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   <si>
     <t xml:space="preserve">Source: Ministry of Education and Science of Georgia.
 </t>
+  </si>
+  <si>
+    <t>Public and Private General Education Schools in Akhaltsikhe municipality</t>
   </si>
 </sst>
 </file>
@@ -292,17 +292,17 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,7 +587,7 @@
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,21 +602,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="A1" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
       <c r="U1" s="13"/>
@@ -628,21 +628,21 @@
       <c r="AA1" s="13"/>
     </row>
     <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="A2" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
@@ -713,7 +713,7 @@
     </row>
     <row r="4" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="10">
         <v>39</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="5" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="11">
         <v>6924</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="6" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>12</v>
@@ -877,11 +877,11 @@
       <c r="AA6" s="13"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="A7" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="25"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
@@ -894,13 +894,13 @@
       <c r="AA7" s="13"/>
     </row>
     <row r="8" spans="1:27" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="A8" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="26"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
